--- a/biology/Botanique/Hilleaceae/Hilleaceae.xlsx
+++ b/biology/Botanique/Hilleaceae/Hilleaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hilleaceae sont une famille d'algues de l'embranchement des Cryptista, de la classe des Cryptophyceae et de l’ordre des Cryptomonadales.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Hillea, peut-être à rapprocher de la structure anatomique appelée « hile »[note 1], en référence à la structure de cette cellule qui est décrite par Butcher comme étant « sans sillon proprement dit mais avec une dépression d'où naissent les flagelles »[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Hillea, peut-être à rapprocher de la structure anatomique appelée « hile »[note 1], en référence à la structure de cette cellule qui est décrite par Butcher comme étant « sans sillon proprement dit mais avec une dépression d'où naissent les flagelles ». 
 </t>
         </is>
       </c>
@@ -542,13 +556,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Hillea est constitué de minuscules monades biflagellées nageant librement ; leur système sillon-œsophage est peu développé, le sillon longitudinal étant apparemment dépourvu d'éjectosomes ; avec un ou deux chloroplastes qui peuvent être de couleur rouge-brun ou bleu-vert ; le pyrénoïde et la tache oculaire peuvent être présents ou non.
 Ce genre constitue un assemblage artificiel et mal connu de cryptomonades.
 En 1967 Butcher a modifié le protologue de Schiller pour inclure tous les « organismes de type Cryptomonas dans lesquels il y a une dépression verticale ou un sillon sans éjectosome. », ce qui revient à dire toutes les espèces incomplètement décrites dans lesquelles les éjectosomes n'ont été ni figurés ni mentionnés, reléguant ainsi le genre au statut de « poubelle »
 La définition actuelle englobe les formes marines et d'eau douce décrites principalement dans les localités européennes.
-Il n'y a à ce jour (octobre 2021) aucune étude détaillée d'aucune espèce du genre Hillea[2].
+Il n'y a à ce jour (octobre 2021) aucune étude détaillée d'aucune espèce du genre Hillea.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Hillea a été découvert en 1925 en Mer Adriatique entre 25 et 75 m de profondeur[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Hillea a été découvert en 1925 en Mer Adriatique entre 25 et 75 m de profondeur.
 </t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (3 septembre 2022)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (3 septembre 2022) :
 Hillea J.Schiller, 1925</t>
         </is>
       </c>
@@ -639,9 +659,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Hilleaceae Butcher, 1967[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Hilleaceae Butcher, 1967.
 </t>
         </is>
       </c>
@@ -670,9 +692,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Butcher, R.W. (1967). An introductory account of the smaller algae of British coastal waters. Part IV: Cryptophyceae. Fisheries Investigations, London, series IV 1967:  [i]-vi, [1]-54, 22 pls.</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Butcher, R.W. (1967). An introductory account of the smaller algae of British coastal waters. Part IV: Cryptophyceae. Fisheries Investigations, London, series IV 1967:  [i]-vi, -54, 22 pls.</t>
         </is>
       </c>
     </row>
